--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.02.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.02.xlsx
@@ -85,6 +85,9 @@
     <t>trans</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t>צחוק</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>אני רופא כאן במחלקה</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>חלק מהצוות שמטפלים בבן שלך ביואב</t>
   </si>
   <si>
@@ -154,15 +160,15 @@
     <t>קצת זה בסדר זה קורה</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>אני יודעת פשוט אתה יודע</t>
   </si>
   <si>
     <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
   </si>
   <si>
-    <t>disagree</t>
-  </si>
-  <si>
     <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
   </si>
   <si>
@@ -244,9 +250,6 @@
     <t>יש לו סכרת, כן</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t xml:space="preserve">זה מחלה לא פשוטה אבל יש לה טיפול </t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -976,7 +976,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -990,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1096,13 +1096,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1320,13 +1320,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1348,13 +1348,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>20</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1418,13 +1418,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1600,13 +1600,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
         <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1886,7 +1886,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1897,7 +1897,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1925,10 +1925,10 @@
         <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1942,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -1953,10 +1953,10 @@
         <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1967,7 +1967,7 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1995,7 +1995,7 @@
         <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2009,10 +2009,10 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2023,7 +2023,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2040,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -2054,7 +2054,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2068,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2121,7 +2121,7 @@
         <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -2138,7 +2138,7 @@
         <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -2163,7 +2163,7 @@
         <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2177,7 +2177,7 @@
         <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2191,10 +2191,10 @@
         <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2247,10 +2247,10 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>130</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2320,7 +2320,7 @@
         <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2345,10 +2345,10 @@
         <v>137</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2359,7 +2359,7 @@
         <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -2373,10 +2373,10 @@
         <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2387,10 +2387,10 @@
         <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2401,7 +2401,7 @@
         <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2429,10 +2429,10 @@
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2443,7 +2443,7 @@
         <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2457,7 +2457,7 @@
         <v>144</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -2471,7 +2471,7 @@
         <v>145</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
@@ -2485,10 +2485,10 @@
         <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2499,10 +2499,10 @@
         <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2541,7 +2541,7 @@
         <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2558,7 +2558,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2569,7 +2569,7 @@
         <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2583,7 +2583,7 @@
         <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2597,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2611,10 +2611,10 @@
         <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2625,7 +2625,7 @@
         <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
@@ -2639,7 +2639,7 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
